--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1522E1C-D42C-8B45-AFDE-89736068835A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5CFE8-6D89-CA41-806E-C8D4CE69F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="11" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,13 @@
     <sheet name="4-1" sheetId="9" r:id="rId9"/>
     <sheet name="4-2" sheetId="10" r:id="rId10"/>
     <sheet name="5-1" sheetId="11" r:id="rId11"/>
-    <sheet name="5-2" sheetId="12" r:id="rId12"/>
+    <sheet name="5-2" sheetId="13" r:id="rId12"/>
+    <sheet name="6-1" sheetId="12" r:id="rId13"/>
+    <sheet name="6-2" sheetId="14" r:id="rId14"/>
+    <sheet name="7-1" sheetId="15" r:id="rId15"/>
+    <sheet name="7-2" sheetId="16" r:id="rId16"/>
+    <sheet name="8-1" sheetId="17" r:id="rId17"/>
+    <sheet name="8-2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="206">
   <si>
     <t>team</t>
   </si>
@@ -506,6 +512,165 @@
   </si>
   <si>
     <t>02:30</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>02:20</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>11:35</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>Ryan Mullady</t>
+  </si>
+  <si>
+    <t>Dave Laux</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>01:13</t>
+  </si>
+  <si>
+    <t>John Bowman</t>
+  </si>
+  <si>
+    <t>Paul Fajman</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>07:06</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>06:45</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>00:11.6</t>
+  </si>
+  <si>
+    <t>17:02</t>
+  </si>
+  <si>
+    <t>Matt Littenberg</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>Throwing Stick</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>Jay Fonville</t>
+  </si>
+  <si>
+    <t>01:11</t>
+  </si>
+  <si>
+    <t>00:19</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>0:05</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>Slashing</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>01:56</t>
+  </si>
+  <si>
+    <t>01:06</t>
+  </si>
+  <si>
+    <t>Dave Horner</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>Too Many Men on the Ice</t>
   </si>
 </sst>
 </file>
@@ -1509,9 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481D14D-C1AE-D243-80FB-54DB38C0A8E2}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1993,14 +2156,2051 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3952D04D-6B19-2A45-8A35-6AECA715B4BD}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326082C4-5592-DA40-A4D8-4A7CCA0730CB}">
   <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713FBD9E-B597-F54A-8981-A2DD4ABF4EEA}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390400C-EB4F-6B4B-A5A1-47910B852B11}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F917D1EA-1190-8D49-92E1-F0950B3F86BD}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE9997-56ED-A344-8ADB-EE8809F7E6CB}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A2D1C-6B59-B147-985E-D4D7C3C43976}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2028,104 +4228,191 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2133,16 +4420,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>59</v>
@@ -2157,30 +4444,30 @@
         <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
@@ -2192,77 +4479,65 @@
         <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>55</v>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +6154,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5CFE8-6D89-CA41-806E-C8D4CE69F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58E0B7-1627-5448-8540-AFEAAC2E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="221">
   <si>
     <t>team</t>
   </si>
@@ -671,6 +671,52 @@
   </si>
   <si>
     <t>Too Many Men on the Ice</t>
+  </si>
+  <si>
+    <t>Bill Woehlsch</t>
+  </si>
+  <si>
+    <t>Chris Matrianiano</t>
+  </si>
+  <si>
+    <t>Scott Kelly</t>
+  </si>
+  <si>
+    <t>Greg Conway</t>
+  </si>
+  <si>
+    <t>John Lemen</t>
+  </si>
+  <si>
+    <t>Meredith Henkleman</t>
+  </si>
+  <si>
+    <t>Michael Pawlo</t>
+  </si>
+  <si>
+    <t>David Laux</t>
+  </si>
+  <si>
+    <t>Jess Kraft</t>
+  </si>
+  <si>
+    <t>Lauren Kirby</t>
+  </si>
+  <si>
+    <t>Mariam Mehter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Yurasko
+</t>
+  </si>
+  <si>
+    <t>Aj Bolyard</t>
+  </si>
+  <si>
+    <t>Tangled up in Blue</t>
+  </si>
+  <si>
+    <t>Tuesday Night Fever</t>
   </si>
 </sst>
 </file>
@@ -726,11 +772,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1087,8 +1134,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,15 +1154,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4547,15 +4603,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D13">
+    <sortCondition ref="D2:D13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58E0B7-1627-5448-8540-AFEAAC2E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC74C0-B495-EB45-8295-9B62F592D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="218">
   <si>
     <t>team</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Alex Ault</t>
   </si>
   <si>
-    <t>Adam Klevin</t>
-  </si>
-  <si>
     <t>Will Eger</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>03:20</t>
   </si>
   <si>
-    <t>Jess Craft</t>
-  </si>
-  <si>
     <t>Chris Matroniano</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
   </si>
   <si>
     <t>John Fonville</t>
-  </si>
-  <si>
-    <t>Spencer Lanhrock</t>
   </si>
   <si>
     <t>Jay Shalaty</t>
@@ -772,12 +763,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1135,13 +1125,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,7 +1144,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1177,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F6607E-018B-B448-ABA7-5BE675BE2D16}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1221,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1258,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1272,10 +1264,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1327,31 +1319,31 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1365,31 +1357,31 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1403,25 +1395,25 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1435,31 +1427,31 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1473,28 +1465,28 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1508,28 +1500,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1543,31 +1535,31 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1581,28 +1573,28 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1616,30 +1608,30 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1651,27 +1643,27 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1680,24 +1672,24 @@
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -1706,19 +1698,19 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481D14D-C1AE-D243-80FB-54DB38C0A8E2}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1774,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1829,13 +1821,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
@@ -1847,13 +1839,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1867,13 +1859,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>45</v>
@@ -1885,13 +1877,13 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1905,10 +1897,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>45</v>
@@ -1920,13 +1912,13 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1940,16 +1932,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
@@ -1958,10 +1950,10 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>16</v>
@@ -1978,28 +1970,28 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>16</v>
@@ -2016,13 +2008,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>23</v>
@@ -2031,10 +2023,10 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>16</v>
@@ -2051,31 +2043,31 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2089,16 +2081,16 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -2107,18 +2099,18 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -2130,27 +2122,27 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -2159,13 +2151,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -2179,7 +2171,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -2188,13 +2180,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
@@ -2258,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2313,13 +2305,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>36</v>
@@ -2328,13 +2320,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2348,16 +2340,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>36</v>
@@ -2366,13 +2358,13 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2386,23 +2378,23 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2416,16 +2408,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
@@ -2434,13 +2426,13 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2454,13 +2446,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -2469,13 +2461,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2489,29 +2481,29 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2525,10 +2517,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>23</v>
@@ -2537,13 +2529,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2557,19 +2549,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -2628,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2683,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2736,28 +2728,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2771,13 +2763,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>36</v>
@@ -2786,13 +2778,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2806,31 +2798,31 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2844,10 +2836,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -2856,13 +2848,13 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2972,26 +2964,26 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3005,26 +2997,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3038,26 +3030,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3071,20 +3063,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>16</v>
@@ -3099,7 +3091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390400C-EB4F-6B4B-A5A1-47910B852B11}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3144,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3178,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3198,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -3259,10 +3253,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>36</v>
@@ -3271,13 +3265,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3291,16 +3285,16 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>23</v>
@@ -3309,13 +3303,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3329,13 +3323,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -3344,13 +3338,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3364,16 +3358,16 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
@@ -3382,13 +3376,13 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3402,10 +3396,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>36</v>
@@ -3414,18 +3408,18 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -3437,36 +3431,36 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -3475,21 +3469,21 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -3498,7 +3492,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F917D1EA-1190-8D49-92E1-F0950B3F86BD}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3554,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3609,22 +3605,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3638,25 +3634,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3670,28 +3666,28 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3705,22 +3701,22 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3734,28 +3730,28 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3769,27 +3765,27 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -3801,27 +3797,27 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -3830,10 +3826,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3842,12 +3838,12 @@
         <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -3856,13 +3852,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -3883,7 +3879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE9997-56ED-A344-8ADB-EE8809F7E6CB}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3927,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3961,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3973,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4031,16 +4029,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -4049,13 +4047,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4069,19 +4067,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>16</v>
@@ -4098,19 +4096,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>16</v>
@@ -4118,7 +4116,7 @@
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -4130,27 +4128,27 @@
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -4159,13 +4157,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
@@ -4174,12 +4172,12 @@
         <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -4188,24 +4186,24 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -4214,19 +4212,19 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A2D1C-6B59-B147-985E-D4D7C3C43976}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4284,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -4339,28 +4339,28 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4374,16 +4374,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
@@ -4393,10 +4393,10 @@
         <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4410,29 +4410,29 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4446,26 +4446,26 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4479,25 +4479,25 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>16</v>
@@ -4514,25 +4514,25 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>16</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -4552,27 +4552,27 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -4581,10 +4581,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
@@ -4605,7 +4605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4631,136 +4633,136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -4771,38 +4773,38 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>217</v>
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FBAE7-A8DB-7741-BCFB-C99E6A826967}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4978,13 +4982,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5013,13 +5017,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5048,13 +5052,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5071,13 +5075,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -5086,13 +5090,13 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5109,10 +5113,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>44</v>
@@ -5124,13 +5128,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5147,13 +5151,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>36</v>
@@ -5162,13 +5166,13 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5185,10 +5189,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>36</v>
@@ -5197,13 +5201,13 @@
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5326,13 +5330,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5353,10 +5357,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5429,25 +5433,25 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5461,25 +5465,25 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5540,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -5602,7 +5606,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -5623,13 +5627,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5702,16 +5706,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -5720,13 +5724,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5740,16 +5744,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>35</v>
@@ -5758,13 +5762,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5778,31 +5782,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5816,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>35</v>
@@ -5828,13 +5832,13 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5848,16 +5852,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -5866,13 +5870,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5886,25 +5890,25 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5961,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -6016,16 +6020,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>23</v>
@@ -6034,13 +6038,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6054,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
@@ -6066,13 +6070,13 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6086,10 +6090,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>45</v>
@@ -6101,13 +6105,13 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6162,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -6193,10 +6197,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -6268,13 +6272,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -6283,13 +6287,13 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6303,13 +6307,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>23</v>
@@ -6318,13 +6322,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6338,10 +6342,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>23</v>
@@ -6350,13 +6354,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6370,13 +6374,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
@@ -6385,13 +6389,13 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6448,7 +6452,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -6479,13 +6483,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6499,10 +6503,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6554,28 +6558,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6589,25 +6593,25 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6621,25 +6625,25 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6653,25 +6657,25 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6685,31 +6689,31 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6723,28 +6727,28 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6758,25 +6762,25 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6788,7 +6792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE815DE-0EAB-194C-AAD2-CCDC8BB5EA35}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6833,7 +6839,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -6884,10 +6890,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6939,25 +6945,25 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6971,16 +6977,16 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>23</v>
@@ -6989,13 +6995,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -7009,25 +7015,25 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7041,13 +7047,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>23</v>
@@ -7056,18 +7062,18 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -7079,51 +7085,51 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC74C0-B495-EB45-8295-9B62F592D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B230730-2A62-EB48-A57C-DD6EEF09264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="214">
   <si>
     <t>team</t>
   </si>
@@ -655,21 +655,12 @@
     <t>01:06</t>
   </si>
   <si>
-    <t>Dave Horner</t>
-  </si>
-  <si>
     <t>01:00</t>
   </si>
   <si>
     <t>Too Many Men on the Ice</t>
   </si>
   <si>
-    <t>Bill Woehlsch</t>
-  </si>
-  <si>
-    <t>Chris Matrianiano</t>
-  </si>
-  <si>
     <t>Scott Kelly</t>
   </si>
   <si>
@@ -697,17 +688,13 @@
     <t>Mariam Mehter</t>
   </si>
   <si>
-    <t xml:space="preserve">William Yurasko
-</t>
-  </si>
-  <si>
-    <t>Aj Bolyard</t>
-  </si>
-  <si>
     <t>Tangled up in Blue</t>
   </si>
   <si>
     <t>Tuesday Night Fever</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1096,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1115,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1141,13 +1131,19 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,6 +1152,9 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481D14D-C1AE-D243-80FB-54DB38C0A8E2}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3091,9 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390400C-EB4F-6B4B-A5A1-47910B852B11}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3504,9 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F917D1EA-1190-8D49-92E1-F0950B3F86BD}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3879,9 +3874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE9997-56ED-A344-8ADB-EE8809F7E6CB}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4236,9 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A2D1C-6B59-B147-985E-D4D7C3C43976}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4482,7 +4473,7 @@
         <v>198</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -4581,10 +4572,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
@@ -4605,9 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4656,18 +4645,18 @@
         <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>203</v>
+      <c r="A4" t="s">
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>141</v>
@@ -4675,7 +4664,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>84</v>
@@ -4684,7 +4673,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,13 +4695,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4734,13 +4723,13 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4751,7 +4740,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>174</v>
@@ -4759,10 +4748,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -4796,7 +4785,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4819,9 +4808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FBAE7-A8DB-7741-BCFB-C99E6A826967}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6792,9 +6779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE815DE-0EAB-194C-AAD2-CCDC8BB5EA35}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7018,7 +7003,7 @@
         <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B230730-2A62-EB48-A57C-DD6EEF09264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133B1F0-ECDC-7D45-8F60-95FD26C36CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="216">
   <si>
     <t>team</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Free Agent 2024-24</t>
   </si>
 </sst>
 </file>
@@ -1090,9 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C39E3-AFC9-4C47-B5AE-2C28003A02B4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1155,6 +1163,14 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4594,9 +4610,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4606,7 +4624,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4619,8 +4637,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -4633,8 +4654,11 @@
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -4648,7 +4672,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -4662,7 +4686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -4676,7 +4700,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -4690,7 +4714,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -4704,7 +4728,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -4718,7 +4742,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -4732,7 +4756,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>158</v>
       </c>
@@ -4746,7 +4770,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>202</v>
       </c>
@@ -4760,7 +4784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -4774,7 +4798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -4788,7 +4812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133B1F0-ECDC-7D45-8F60-95FD26C36CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D521F-FC7D-2747-8660-C9B4B734A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="215">
   <si>
     <t>team</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>08-30</t>
   </si>
   <si>
     <t>15:50</t>
@@ -1098,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C39E3-AFC9-4C47-B5AE-2C28003A02B4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1145,7 +1142,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1167,10 +1164,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
@@ -1372,13 +1369,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -1410,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>78</v>
@@ -1442,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>74</v>
@@ -1480,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>77</v>
@@ -1515,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
@@ -1550,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>51</v>
@@ -1588,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>74</v>
@@ -1623,10 +1620,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
@@ -1687,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>74</v>
@@ -1713,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>84</v>
@@ -1781,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1836,13 +1833,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
@@ -1874,13 +1871,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>45</v>
@@ -1912,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>53</v>
@@ -1947,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
@@ -1985,7 +1982,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
@@ -2023,10 +2020,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>99</v>
@@ -2058,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>61</v>
@@ -2067,7 +2064,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -2105,7 +2102,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -2166,13 +2163,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -2195,13 +2192,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
@@ -2265,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2320,13 +2317,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>36</v>
@@ -2355,10 +2352,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
@@ -2393,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -2423,13 +2420,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>99</v>
@@ -2461,13 +2458,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -2496,13 +2493,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>77</v>
@@ -2532,7 +2529,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>61</v>
@@ -2564,7 +2561,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>99</v>
@@ -2635,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2743,7 +2740,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>83</v>
@@ -2778,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>62</v>
@@ -2813,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>51</v>
@@ -2822,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>
@@ -2851,7 +2848,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>61</v>
@@ -2924,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2979,13 +2976,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
@@ -3012,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
@@ -3045,10 +3042,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>63</v>
@@ -3078,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
@@ -3151,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3188,7 +3185,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3266,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>82</v>
@@ -3298,7 +3295,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
@@ -3336,13 +3333,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -3371,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>83</v>
@@ -3409,7 +3406,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>82</v>
@@ -3470,10 +3467,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -3493,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -3561,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3616,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>50</v>
@@ -3645,7 +3642,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
@@ -3677,7 +3674,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3712,7 +3709,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>78</v>
@@ -3741,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -3776,7 +3773,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -3837,10 +3834,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3863,13 +3860,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -3934,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3980,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4038,7 +4035,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
@@ -4047,7 +4044,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -4076,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>78</v>
@@ -4105,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>49</v>
@@ -4166,13 +4163,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
@@ -4195,13 +4192,13 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -4221,13 +4218,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
@@ -4291,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -4346,10 +4343,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>98</v>
@@ -4381,13 +4378,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>62</v>
@@ -4417,13 +4414,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>62</v>
@@ -4453,10 +4450,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>49</v>
@@ -4486,7 +4483,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>46</v>
@@ -4521,13 +4518,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>58</v>
@@ -4588,10 +4585,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
@@ -4638,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4655,7 +4652,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,15 +4663,15 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
@@ -4683,12 +4680,12 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>84</v>
@@ -4697,7 +4694,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4708,10 +4705,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4719,13 +4716,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,13 +4730,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4747,35 +4744,35 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -6803,7 +6800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE815DE-0EAB-194C-AAD2-CCDC8BB5EA35}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6954,7 +6953,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -6986,7 +6985,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>102</v>
@@ -7024,10 +7023,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>
@@ -7056,10 +7055,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>57</v>
@@ -7123,13 +7122,13 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D521F-FC7D-2747-8660-C9B4B734A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267BD0D-97FC-3F46-B227-EE7619596E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C39E3-AFC9-4C47-B5AE-2C28003A02B4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4609,9 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6800,9 +6798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE815DE-0EAB-194C-AAD2-CCDC8BB5EA35}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267BD0D-97FC-3F46-B227-EE7619596E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35FFA4-7DA5-2E47-AA63-454A46C927F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="214">
   <si>
     <t>team</t>
   </si>
@@ -667,15 +667,9 @@
     <t>John Lemen</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>Michael Pawlo</t>
   </si>
   <si>
-    <t>David Laux</t>
-  </si>
-  <si>
     <t>Jess Kraft</t>
   </si>
   <si>
@@ -698,6 +692,9 @@
   </si>
   <si>
     <t>Free Agent 2024-24</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C39E3-AFC9-4C47-B5AE-2C28003A02B4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1164,10 +1161,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4633,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4664,12 +4661,12 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
@@ -4692,7 +4689,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4720,7 +4717,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4748,7 +4745,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4759,7 +4756,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>173</v>
@@ -4770,7 +4767,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -4827,7 +4824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FBAE7-A8DB-7741-BCFB-C99E6A826967}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7022,7 +7021,7 @@
         <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35FFA4-7DA5-2E47-AA63-454A46C927F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DFBBE-08E1-E749-A0C3-EE26146298EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="213">
   <si>
     <t>team</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>John Lemen</t>
-  </si>
-  <si>
-    <t>Michael Pawlo</t>
   </si>
   <si>
     <t>Jess Kraft</t>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1161,10 +1158,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560166F2-6D22-E542-8653-AE01702D8947}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4630,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,7 +4665,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
@@ -4689,7 +4688,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4717,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4745,7 +4744,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4756,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>173</v>
@@ -4767,7 +4766,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -7021,7 +7020,7 @@
         <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>

--- a/data/xlsx/2024-24.xlsx
+++ b/data/xlsx/2024-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DFBBE-08E1-E749-A0C3-EE26146298EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D8E50-8D33-F74E-B2EE-5A165AB109C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{486E24DC-62D4-1845-8223-3FF3D07585E4}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="212">
   <si>
     <t>team</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Craig Klueber</t>
-  </si>
-  <si>
-    <t>John Fonville</t>
   </si>
   <si>
     <t>Jay Shalaty</t>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1158,10 +1155,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481D14D-C1AE-D243-80FB-54DB38C0A8E2}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2058,7 +2057,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -2096,7 +2095,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -2157,10 +2156,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>116</v>
@@ -2186,13 +2185,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
@@ -2311,13 +2310,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>36</v>
@@ -2346,10 +2345,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
@@ -2384,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -2414,13 +2413,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>99</v>
@@ -2452,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -2487,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>47</v>
@@ -2523,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>61</v>
@@ -2555,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>99</v>
@@ -2626,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2734,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>83</v>
@@ -2769,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>62</v>
@@ -2804,7 +2803,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>51</v>
@@ -2813,7 +2812,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>
@@ -2842,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>61</v>
@@ -2915,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -2970,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
@@ -3003,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
@@ -3036,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>63</v>
@@ -3069,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
@@ -3142,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3179,7 +3178,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3257,7 +3256,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>82</v>
@@ -3289,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
@@ -3327,13 +3326,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -3362,7 +3361,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>83</v>
@@ -3400,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>82</v>
@@ -3461,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>116</v>
@@ -3484,10 +3483,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -3552,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3607,7 +3606,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>50</v>
@@ -3636,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
@@ -3668,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3703,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>78</v>
@@ -3732,7 +3731,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -3767,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -3828,10 +3827,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3854,13 +3853,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -3881,7 +3880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE9997-56ED-A344-8ADB-EE8809F7E6CB}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3925,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -3971,7 +3972,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4029,7 +4030,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
@@ -4038,7 +4039,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -4067,7 +4068,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>78</v>
@@ -4096,7 +4097,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>49</v>
@@ -4157,13 +4158,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
@@ -4186,13 +4187,13 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -4212,13 +4213,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
@@ -4282,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -4337,7 +4338,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>129</v>
@@ -4372,13 +4373,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>62</v>
@@ -4408,13 +4409,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>62</v>
@@ -4444,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>114</v>
@@ -4477,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>46</v>
@@ -4512,7 +4513,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -4579,10 +4580,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
@@ -4604,7 +4605,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4629,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4660,12 +4661,12 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
@@ -4674,7 +4675,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4688,7 +4689,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4702,7 +4703,7 @@
         <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4710,13 +4711,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4724,13 +4725,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4738,18 +4739,18 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -4758,15 +4759,15 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -7020,7 +7021,7 @@
         <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>58</v>
